--- a/Project_Data.xlsx
+++ b/Project_Data.xlsx
@@ -229,10 +229,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -252,6 +252,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -259,38 +266,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,14 +290,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -320,30 +297,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -359,22 +330,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,7 +359,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,13 +422,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,31 +458,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,25 +476,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,30 +506,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -548,19 +518,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,31 +590,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,26 +644,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,6 +664,26 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -707,15 +712,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -731,13 +727,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -746,7 +746,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -755,143 +761,137 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -911,9 +911,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -938,13 +935,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1065,6 +1056,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"CPI"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
@@ -1283,6 +1285,7 @@
         <c:axId val="877454064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1727,6 +1730,8 @@
         <c:axId val="563706898"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="6.5"/>
+          <c:min val="3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2172,6 +2177,7 @@
         <c:axId val="662941106"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="4.9"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2617,6 +2623,7 @@
         <c:axId val="740181270"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="5.7"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3062,6 +3069,7 @@
         <c:axId val="228489366"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="4.8"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3776,6 +3784,7 @@
         <c:axId val="192159186"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -7651,10 +7660,10 @@
       <xdr:rowOff>11430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>163</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>570865</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>170815</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7663,7 +7672,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1600200" y="28174950"/>
-        <a:ext cx="5844540" cy="2743200"/>
+        <a:ext cx="5584825" cy="2536825"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7936,8 +7945,8 @@
   <sheetPr/>
   <dimension ref="A1:O146"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="K102" sqref="K102"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="L148" sqref="L148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -7983,19 +7992,19 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -8030,22 +8039,22 @@
       <c r="J2" s="6">
         <v>864823</v>
       </c>
-      <c r="K2" s="12">
+      <c r="K2" s="11">
         <v>10000001</v>
       </c>
-      <c r="L2" s="13">
+      <c r="L2" s="12">
         <f>1-E2</f>
         <v>0.890767</v>
       </c>
-      <c r="M2" s="13">
+      <c r="M2" s="12">
         <f>1-F2</f>
         <v>0.918721</v>
       </c>
-      <c r="N2" s="13">
+      <c r="N2" s="12">
         <f>1-G2</f>
         <v>0.488302</v>
       </c>
-      <c r="O2" s="14">
+      <c r="O2" s="13">
         <f>1+((H2+I2)*6+J2*50)/K2</f>
         <v>6.33817626618237</v>
       </c>
@@ -8079,22 +8088,22 @@
       <c r="J3" s="6">
         <v>651715</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="11">
         <v>10000001</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="12">
         <f>1-E3</f>
         <v>0.943497</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="12">
         <f>1-F3</f>
         <v>0.918721</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N3" s="12">
         <f>1-G3</f>
         <v>0.540751</v>
       </c>
-      <c r="O3" s="14">
+      <c r="O3" s="13">
         <f t="shared" ref="O3:O22" si="0">1+((H3+I3)*6+J3*50)/K3</f>
         <v>5.1100279889972</v>
       </c>
@@ -8126,22 +8135,22 @@
       <c r="J4" s="6">
         <v>585058</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="11">
         <v>10000001</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="12">
         <f>1-E4</f>
         <v>0.959097</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="12">
         <f>1-F4</f>
         <v>0.918721</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4" s="12">
         <f>1-G4</f>
         <v>0.563035</v>
       </c>
-      <c r="O4" s="14">
+      <c r="O4" s="13">
         <f t="shared" si="0"/>
         <v>4.72863742713626</v>
       </c>
@@ -8173,22 +8182,22 @@
       <c r="J5" s="6">
         <v>539062</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="11">
         <v>10000001</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="12">
         <f t="shared" ref="L5:L22" si="1">1-E5</f>
         <v>0.968964</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="12">
         <f t="shared" ref="M5:M22" si="2">1-F5</f>
         <v>0.918721</v>
       </c>
-      <c r="N5" s="13">
+      <c r="N5" s="12">
         <f t="shared" ref="N5:N22" si="3">1-G5</f>
         <v>0.581538</v>
       </c>
-      <c r="O5" s="14">
+      <c r="O5" s="13">
         <f t="shared" si="0"/>
         <v>4.46822845317715</v>
       </c>
@@ -8220,22 +8229,22 @@
       <c r="J6" s="6">
         <v>516158</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="11">
         <v>10000001</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="12">
         <f t="shared" si="1"/>
         <v>0.974461</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="12">
         <f t="shared" si="2"/>
         <v>0.918721</v>
       </c>
-      <c r="N6" s="13">
+      <c r="N6" s="12">
         <f t="shared" si="3"/>
         <v>0.590334</v>
       </c>
-      <c r="O6" s="14">
+      <c r="O6" s="13">
         <f t="shared" si="0"/>
         <v>4.33675846632415</v>
       </c>
@@ -8269,22 +8278,22 @@
       <c r="J7" s="6">
         <v>507322</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="11">
         <v>10000001</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="12">
         <f t="shared" si="1"/>
         <v>0.890767</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="12">
         <f t="shared" si="2"/>
         <v>0.976176</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="12">
         <f t="shared" si="3"/>
         <v>0.431413</v>
       </c>
-      <c r="O7" s="14">
+      <c r="O7" s="13">
         <f t="shared" si="0"/>
         <v>4.07196029280397</v>
       </c>
@@ -8316,22 +8325,22 @@
       <c r="J8" s="6">
         <v>399511</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="11">
         <v>10000001</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="12">
         <f t="shared" si="1"/>
         <v>0.890767</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="12">
         <f t="shared" si="2"/>
         <v>0.996954</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N8" s="12">
         <f t="shared" si="3"/>
         <v>0.338247</v>
       </c>
-      <c r="O8" s="14">
+      <c r="O8" s="13">
         <f t="shared" si="0"/>
         <v>3.35978436402156</v>
       </c>
@@ -8363,22 +8372,22 @@
       <c r="J9" s="6">
         <v>390086</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="11">
         <v>10000001</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="12">
         <f t="shared" si="1"/>
         <v>0.890767</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M9" s="12">
         <f t="shared" si="2"/>
         <v>0.997965</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N9" s="12">
         <f t="shared" si="3"/>
         <v>0.338468</v>
       </c>
-      <c r="O9" s="14">
+      <c r="O9" s="13">
         <f t="shared" si="0"/>
         <v>3.30423236957676</v>
       </c>
@@ -8410,22 +8419,22 @@
       <c r="J10" s="6">
         <v>384454</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="11">
         <v>10000001</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="12">
         <f t="shared" si="1"/>
         <v>0.890767</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="12">
         <f t="shared" si="2"/>
         <v>0.998835</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N10" s="12">
         <f t="shared" si="3"/>
         <v>0.334385</v>
       </c>
-      <c r="O10" s="14">
+      <c r="O10" s="13">
         <f t="shared" si="0"/>
         <v>3.2688249731175</v>
       </c>
@@ -8459,22 +8468,22 @@
       <c r="J11" s="6">
         <v>691860</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="11">
         <v>10000001</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="12">
         <f t="shared" si="1"/>
         <v>0.941848</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M11" s="12">
         <f t="shared" si="2"/>
         <v>0.918721</v>
       </c>
-      <c r="N11" s="13">
+      <c r="N11" s="12">
         <f t="shared" si="3"/>
         <v>0.515357</v>
       </c>
-      <c r="O11" s="14">
+      <c r="O11" s="13">
         <f t="shared" si="0"/>
         <v>5.31583976841602</v>
       </c>
@@ -8506,22 +8515,22 @@
       <c r="J12" s="6">
         <v>649050</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="11">
         <v>10000001</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="12">
         <f t="shared" si="1"/>
         <v>0.956573</v>
       </c>
-      <c r="M12" s="13">
+      <c r="M12" s="12">
         <f t="shared" si="2"/>
         <v>0.918721</v>
       </c>
-      <c r="N12" s="13">
+      <c r="N12" s="12">
         <f t="shared" si="3"/>
         <v>0.519892</v>
       </c>
-      <c r="O12" s="14">
+      <c r="O12" s="13">
         <f t="shared" si="0"/>
         <v>5.056379994362</v>
       </c>
@@ -8553,22 +8562,22 @@
       <c r="J13" s="6">
         <v>659926</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="11">
         <v>10000001</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="12">
         <f t="shared" si="1"/>
         <v>0.957014</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M13" s="12">
         <f t="shared" si="2"/>
         <v>0.918721</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N13" s="12">
         <f t="shared" si="3"/>
         <v>0.511029</v>
       </c>
-      <c r="O13" s="14">
+      <c r="O13" s="13">
         <f t="shared" si="0"/>
         <v>5.10940218905978</v>
       </c>
@@ -8600,22 +8609,22 @@
       <c r="J14" s="6">
         <v>672838</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="11">
         <v>10000001</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L14" s="12">
         <f t="shared" si="1"/>
         <v>0.955067</v>
       </c>
-      <c r="M14" s="13">
+      <c r="M14" s="12">
         <f t="shared" si="2"/>
         <v>0.918721</v>
       </c>
-      <c r="N14" s="13">
+      <c r="N14" s="12">
         <f t="shared" si="3"/>
         <v>0.50513</v>
       </c>
-      <c r="O14" s="14">
+      <c r="O14" s="13">
         <f t="shared" si="0"/>
         <v>5.17996458200354</v>
       </c>
@@ -8649,22 +8658,22 @@
       <c r="J15" s="6">
         <v>866729</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15" s="11">
         <v>10000001</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="12">
         <f t="shared" si="1"/>
         <v>0.890767</v>
       </c>
-      <c r="M15" s="13">
+      <c r="M15" s="12">
         <f t="shared" si="2"/>
         <v>0.918721</v>
       </c>
-      <c r="N15" s="13">
+      <c r="N15" s="12">
         <f t="shared" si="3"/>
         <v>0.487174</v>
       </c>
-      <c r="O15" s="14">
+      <c r="O15" s="13">
         <f t="shared" si="0"/>
         <v>6.34770626522937</v>
       </c>
@@ -8696,22 +8705,22 @@
       <c r="J16" s="6">
         <v>811222</v>
       </c>
-      <c r="K16" s="12">
+      <c r="K16" s="11">
         <v>10000001</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L16" s="12">
         <f t="shared" si="1"/>
         <v>0.890767</v>
       </c>
-      <c r="M16" s="13">
+      <c r="M16" s="12">
         <f t="shared" si="2"/>
         <v>0.918721</v>
       </c>
-      <c r="N16" s="13">
+      <c r="N16" s="12">
         <f t="shared" si="3"/>
         <v>0.520016</v>
       </c>
-      <c r="O16" s="14">
+      <c r="O16" s="13">
         <f t="shared" si="0"/>
         <v>6.07017129298287</v>
       </c>
@@ -8743,22 +8752,22 @@
       <c r="J17" s="6">
         <v>767392</v>
       </c>
-      <c r="K17" s="12">
+      <c r="K17" s="11">
         <v>10000001</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="12">
         <f t="shared" si="1"/>
         <v>0.890767</v>
       </c>
-      <c r="M17" s="13">
+      <c r="M17" s="12">
         <f t="shared" si="2"/>
         <v>0.918721</v>
       </c>
-      <c r="N17" s="13">
+      <c r="N17" s="12">
         <f t="shared" si="3"/>
         <v>0.54595</v>
       </c>
-      <c r="O17" s="14">
+      <c r="O17" s="13">
         <f t="shared" si="0"/>
         <v>5.85102131489787</v>
       </c>
@@ -8790,22 +8799,22 @@
       <c r="J18" s="6">
         <v>760390</v>
       </c>
-      <c r="K18" s="12">
+      <c r="K18" s="11">
         <v>10000001</v>
       </c>
-      <c r="L18" s="13">
+      <c r="L18" s="12">
         <f t="shared" si="1"/>
         <v>0.890767</v>
       </c>
-      <c r="M18" s="13">
+      <c r="M18" s="12">
         <f t="shared" si="2"/>
         <v>0.918721</v>
       </c>
-      <c r="N18" s="13">
+      <c r="N18" s="12">
         <f t="shared" si="3"/>
         <v>0.550093</v>
       </c>
-      <c r="O18" s="14">
+      <c r="O18" s="13">
         <f t="shared" si="0"/>
         <v>5.81601131839887</v>
       </c>
@@ -8839,22 +8848,22 @@
       <c r="J19" s="6">
         <v>729291</v>
       </c>
-      <c r="K19" s="12">
+      <c r="K19" s="11">
         <v>10000001</v>
       </c>
-      <c r="L19" s="13">
+      <c r="L19" s="12">
         <f t="shared" si="1"/>
         <v>0.866626</v>
       </c>
-      <c r="M19" s="13">
+      <c r="M19" s="12">
         <f t="shared" si="2"/>
         <v>0.949522</v>
       </c>
-      <c r="N19" s="13">
+      <c r="N19" s="12">
         <f t="shared" si="3"/>
         <v>0.472404</v>
       </c>
-      <c r="O19" s="14">
+      <c r="O19" s="13">
         <f t="shared" si="0"/>
         <v>5.47582915241708</v>
       </c>
@@ -8886,22 +8895,22 @@
       <c r="J20" s="6">
         <v>677174</v>
       </c>
-      <c r="K20" s="12">
+      <c r="K20" s="11">
         <v>10000001</v>
       </c>
-      <c r="L20" s="13">
+      <c r="L20" s="12">
         <f t="shared" si="1"/>
         <v>0.844776</v>
       </c>
-      <c r="M20" s="13">
+      <c r="M20" s="12">
         <f t="shared" si="2"/>
         <v>0.971342</v>
       </c>
-      <c r="N20" s="13">
+      <c r="N20" s="12">
         <f t="shared" si="3"/>
         <v>0.431322</v>
       </c>
-      <c r="O20" s="14">
+      <c r="O20" s="13">
         <f t="shared" si="0"/>
         <v>5.10034178996582</v>
       </c>
@@ -8933,22 +8942,22 @@
       <c r="J21" s="6">
         <v>757816</v>
       </c>
-      <c r="K21" s="12">
+      <c r="K21" s="11">
         <v>10000001</v>
       </c>
-      <c r="L21" s="13">
+      <c r="L21" s="12">
         <f t="shared" si="1"/>
         <v>0.796382</v>
       </c>
-      <c r="M21" s="13">
+      <c r="M21" s="12">
         <f t="shared" si="2"/>
         <v>0.980052</v>
       </c>
-      <c r="N21" s="13">
+      <c r="N21" s="12">
         <f t="shared" si="3"/>
         <v>0.424509</v>
       </c>
-      <c r="O21" s="14">
+      <c r="O21" s="13">
         <f t="shared" si="0"/>
         <v>5.57916974208303</v>
       </c>
@@ -8980,22 +8989,22 @@
       <c r="J22" s="6">
         <v>863906</v>
       </c>
-      <c r="K22" s="12">
+      <c r="K22" s="11">
         <v>10000001</v>
       </c>
-      <c r="L22" s="13">
+      <c r="L22" s="12">
         <f t="shared" si="1"/>
         <v>0.759621</v>
       </c>
-      <c r="M22" s="13">
+      <c r="M22" s="12">
         <f t="shared" si="2"/>
         <v>0.986526</v>
       </c>
-      <c r="N22" s="13">
+      <c r="N22" s="12">
         <f t="shared" si="3"/>
         <v>0.389312</v>
       </c>
-      <c r="O22" s="14">
+      <c r="O22" s="13">
         <f t="shared" si="0"/>
         <v>6.16831528316847</v>
       </c>
@@ -9045,10 +9054,10 @@
       </c>
     </row>
     <row r="26" ht="28.8" spans="2:15">
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="7" t="s">
         <v>48</v>
       </c>
       <c r="D26" s="4" t="s">
@@ -9093,7 +9102,7 @@
       </c>
     </row>
     <row r="27" spans="2:15">
-      <c r="B27" s="7"/>
+      <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
         <v>20</v>
       </c>
@@ -9139,7 +9148,7 @@
       </c>
     </row>
     <row r="28" spans="2:15">
-      <c r="B28" s="7"/>
+      <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
         <v>23</v>
@@ -9183,7 +9192,7 @@
       </c>
     </row>
     <row r="29" spans="2:15">
-      <c r="B29" s="7"/>
+      <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
         <v>25</v>
@@ -9227,7 +9236,7 @@
       </c>
     </row>
     <row r="30" spans="2:15">
-      <c r="B30" s="7"/>
+      <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4" t="s">
         <v>27</v>
@@ -9315,10 +9324,10 @@
       </c>
     </row>
     <row r="49" ht="28.8" spans="2:15">
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="7" t="s">
         <v>50</v>
       </c>
       <c r="D49" s="4" t="s">
@@ -9363,7 +9372,7 @@
       </c>
     </row>
     <row r="50" spans="2:15">
-      <c r="B50" s="7"/>
+      <c r="B50" s="4"/>
       <c r="C50" s="4" t="s">
         <v>29</v>
       </c>
@@ -9409,7 +9418,7 @@
       </c>
     </row>
     <row r="51" spans="2:15">
-      <c r="B51" s="7"/>
+      <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4" t="s">
         <v>23</v>
@@ -9453,7 +9462,7 @@
       </c>
     </row>
     <row r="52" spans="2:15">
-      <c r="B52" s="7"/>
+      <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4" t="s">
         <v>25</v>
@@ -9497,7 +9506,7 @@
       </c>
     </row>
     <row r="53" spans="2:15">
-      <c r="B53" s="7"/>
+      <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4" t="s">
         <v>27</v>
@@ -9585,10 +9594,10 @@
       </c>
     </row>
     <row r="72" ht="28.8" spans="2:15">
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D72" s="6">
@@ -9633,7 +9642,7 @@
       </c>
     </row>
     <row r="73" spans="2:15">
-      <c r="B73" s="7"/>
+      <c r="B73" s="4"/>
       <c r="C73" s="4" t="s">
         <v>34</v>
       </c>
@@ -9679,7 +9688,7 @@
       </c>
     </row>
     <row r="74" spans="2:15">
-      <c r="B74" s="7"/>
+      <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4">
         <v>4</v>
@@ -9723,7 +9732,7 @@
       </c>
     </row>
     <row r="75" spans="2:15">
-      <c r="B75" s="7"/>
+      <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4">
         <v>8</v>
@@ -9767,7 +9776,7 @@
       </c>
     </row>
     <row r="76" spans="2:15">
-      <c r="B76" s="7"/>
+      <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4">
         <v>16</v>
@@ -9855,10 +9864,10 @@
       </c>
     </row>
     <row r="95" ht="28.8" spans="2:15">
-      <c r="B95" s="7" t="s">
+      <c r="B95" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C95" s="8" t="s">
+      <c r="C95" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D95" s="6">
@@ -9903,7 +9912,7 @@
       </c>
     </row>
     <row r="96" spans="2:15">
-      <c r="B96" s="7"/>
+      <c r="B96" s="4"/>
       <c r="C96" s="4" t="s">
         <v>39</v>
       </c>
@@ -9949,7 +9958,7 @@
       </c>
     </row>
     <row r="97" spans="2:15">
-      <c r="B97" s="7"/>
+      <c r="B97" s="4"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4">
         <v>4</v>
@@ -9993,7 +10002,7 @@
       </c>
     </row>
     <row r="98" spans="2:15">
-      <c r="B98" s="7"/>
+      <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4">
         <v>8</v>
@@ -10037,7 +10046,7 @@
       </c>
     </row>
     <row r="99" spans="2:15">
-      <c r="B99" s="7"/>
+      <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4">
         <v>16</v>
@@ -10125,10 +10134,10 @@
       </c>
     </row>
     <row r="118" ht="28.8" spans="2:15">
-      <c r="B118" s="7" t="s">
+      <c r="B118" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C118" s="8" t="s">
+      <c r="C118" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D118" s="4">
@@ -10173,7 +10182,7 @@
       </c>
     </row>
     <row r="119" spans="2:15">
-      <c r="B119" s="7"/>
+      <c r="B119" s="4"/>
       <c r="C119" s="4" t="s">
         <v>44</v>
       </c>
@@ -10219,7 +10228,7 @@
       </c>
     </row>
     <row r="120" spans="2:15">
-      <c r="B120" s="7"/>
+      <c r="B120" s="4"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4">
         <v>64</v>
@@ -10263,7 +10272,7 @@
       </c>
     </row>
     <row r="121" spans="2:15">
-      <c r="B121" s="7"/>
+      <c r="B121" s="4"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4">
         <v>128</v>
@@ -10307,7 +10316,7 @@
       </c>
     </row>
     <row r="122" spans="2:15">
-      <c r="B122" s="7"/>
+      <c r="B122" s="4"/>
       <c r="C122" s="4"/>
       <c r="D122" s="4">
         <v>256</v>
@@ -10351,122 +10360,122 @@
       </c>
     </row>
     <row r="141" ht="28.8" spans="2:7">
-      <c r="B141" s="15" t="s">
+      <c r="B141" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C141" s="16" t="s">
+      <c r="C141" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D141" s="16" t="s">
+      <c r="D141" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E141" s="16" t="s">
+      <c r="E141" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="F141" s="16" t="s">
+      <c r="F141" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="G141" s="16" t="s">
+      <c r="G141" s="14" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="142" spans="2:7">
-      <c r="B142" s="7" t="s">
+      <c r="B142" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C142" s="17">
+      <c r="C142" s="6">
         <v>6.338176266</v>
       </c>
-      <c r="D142" s="17">
+      <c r="D142" s="6">
         <v>6.338176266</v>
       </c>
-      <c r="E142" s="17">
+      <c r="E142" s="6">
         <v>6.338176266</v>
       </c>
-      <c r="F142" s="17">
+      <c r="F142" s="6">
         <v>6.338176266</v>
       </c>
-      <c r="G142" s="17">
+      <c r="G142" s="6">
         <v>6.338176266</v>
       </c>
     </row>
     <row r="143" spans="2:7">
-      <c r="B143" s="7" t="s">
+      <c r="B143" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C143" s="17">
+      <c r="C143" s="6">
         <v>5.110027989</v>
       </c>
-      <c r="D143" s="17">
+      <c r="D143" s="6">
         <v>4.071960293</v>
       </c>
-      <c r="E143" s="17">
+      <c r="E143" s="6">
         <v>5.315839768</v>
       </c>
-      <c r="F143" s="17">
+      <c r="F143" s="6">
         <v>6.347706265</v>
       </c>
-      <c r="G143" s="17">
+      <c r="G143" s="6">
         <v>5.475829152</v>
       </c>
     </row>
     <row r="144" spans="2:7">
-      <c r="B144" s="7" t="s">
+      <c r="B144" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C144" s="17">
+      <c r="C144" s="6">
         <v>4.728637427</v>
       </c>
-      <c r="D144" s="17">
+      <c r="D144" s="6">
         <v>3.359784364</v>
       </c>
-      <c r="E144" s="17">
+      <c r="E144" s="6">
         <v>5.056379994</v>
       </c>
-      <c r="F144" s="17">
+      <c r="F144" s="6">
         <v>6.070171293</v>
       </c>
-      <c r="G144" s="17">
+      <c r="G144" s="6">
         <v>5.10034179</v>
       </c>
     </row>
     <row r="145" spans="2:7">
-      <c r="B145" s="7" t="s">
+      <c r="B145" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C145" s="17">
+      <c r="C145" s="6">
         <v>4.468228453</v>
       </c>
-      <c r="D145" s="17">
+      <c r="D145" s="6">
         <v>3.30423237</v>
       </c>
-      <c r="E145" s="17">
+      <c r="E145" s="6">
         <v>5.109402189</v>
       </c>
-      <c r="F145" s="17">
+      <c r="F145" s="6">
         <v>5.851021315</v>
       </c>
-      <c r="G145" s="17">
+      <c r="G145" s="6">
         <v>5.579169742</v>
       </c>
     </row>
     <row r="146" spans="2:7">
-      <c r="B146" s="7" t="s">
+      <c r="B146" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C146" s="17">
+      <c r="C146" s="6">
         <v>4.336758466</v>
       </c>
-      <c r="D146" s="17">
+      <c r="D146" s="6">
         <v>3.268824973</v>
       </c>
-      <c r="E146" s="17">
+      <c r="E146" s="6">
         <v>5.179964582</v>
       </c>
-      <c r="F146" s="17">
+      <c r="F146" s="6">
         <v>5.816011318</v>
       </c>
-      <c r="G146" s="17">
+      <c r="G146" s="6">
         <v>6.168315283</v>
       </c>
     </row>
